--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7650"/>
+    <workbookView windowWidth="20490" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>DemoColumnAddedFromTestPr2</t>
   </si>
   <si>
     <t>student</t>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t>reg123</t>
+  </si>
+  <si>
+    <t>abssd</t>
   </si>
 </sst>
 </file>
@@ -975,36 +981,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2">
+        <v>12222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>DemoColumnAddedFromTestPr2</t>
+  </si>
+  <si>
+    <t>DemoColumnAddedFromTestBranch</t>
   </si>
   <si>
     <t>student</t>
@@ -981,15 +984,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,13 +1002,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>12222</v>
@@ -1013,13 +1019,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>DemoColumnAddedFromTestPr2</t>
+  </si>
+  <si>
+    <t>HiTESTPR2New</t>
   </si>
   <si>
     <t>student</t>
@@ -981,15 +984,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,13 +1002,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>12222</v>
@@ -1013,13 +1019,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>HiTESTPR2New</t>
+  </si>
+  <si>
+    <t>HiTESTPR2New2</t>
   </si>
   <si>
     <t>student</t>
@@ -984,15 +987,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1005,13 +1008,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>12222</v>
@@ -1019,13 +1025,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -25,7 +25,13 @@
     <t>DemoColumnAddedFromTestPr2</t>
   </si>
   <si>
+    <t>HiTESTPR2New</t>
+  </si>
+  <si>
     <t>DemoColumnAddedFromTestBranch</t>
+  </si>
+  <si>
+    <t>HiTESTPR2New2</t>
   </si>
   <si>
     <t>student</t>
@@ -984,15 +990,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,16 +1008,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>12222</v>
@@ -1019,13 +1031,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7200"/>
+    <workbookView windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>HiTESTPR2New2</t>
+  </si>
+  <si>
+    <t>HiTESTPR2New3</t>
   </si>
   <si>
     <t>student</t>
@@ -990,15 +993,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,14 +1019,17 @@
       </c>
       <c r="J1" t="s">
         <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>12222</v>
@@ -1031,13 +1037,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -31,7 +31,7 @@
     <t>DemoColumnAddedFromTestBranch</t>
   </si>
   <si>
-    <t>HiTESTPR2New2</t>
+    <t>HiTESTPR2New20</t>
   </si>
   <si>
     <t>HiTESTPR2New3</t>
@@ -996,7 +996,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>

--- a/Excel/testdata.xlsx
+++ b/Excel/testdata.xlsx
@@ -31,7 +31,7 @@
     <t>DemoColumnAddedFromTestBranch</t>
   </si>
   <si>
-    <t>HiTESTPR2New20</t>
+    <t>HiTESTPR2New21</t>
   </si>
   <si>
     <t>HiTESTPR2New3</t>
